--- a/xlsx/科罗拉多州_intext.xlsx
+++ b/xlsx/科罗拉多州_intext.xlsx
@@ -15,923 +15,920 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t>科罗拉多州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>科罗拉多州州旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>丹佛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E4%BC%AF%E7%89%B9%E5%B3%B0</t>
+  </si>
+  <si>
+    <t>阿尔伯特峰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Colorado</t>
+  </si>
+  <si>
+    <t>en-List of Governors of Colorado</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B8%8C%E8%82%AF%E7%9B%A7%E7%8F%80</t>
+  </si>
+  <si>
+    <t>约翰·希肯卢珀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Colorado</t>
+  </si>
+  <si>
+    <t>en-List of lieutenant governors of Colorado</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Joseph_Garcia_(U.S._politician)</t>
+  </si>
+  <si>
+    <t>en-Joseph Garcia (U.S. politician)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Colorado</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from Colorado</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美山区时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
+  </si>
+  <si>
+    <t>日光节约时间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E8%B3%BC%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>路易斯安那购地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%BB</t>
+  </si>
+  <si>
+    <t>大麻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E5%AE%89</t>
+  </si>
+  <si>
+    <t>印地安</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>阿拉斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
+  </si>
+  <si>
+    <t>夏威夷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>科罗拉多州行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B%E5%86%9B%E5%AE%98%E5%AD%A6%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>美国空军军官学校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%99%E4%B8%98%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>大沙丘国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E7%BD%97%E6%8B%89_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奥罗拉 (科罗拉多州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%B5%96%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>布赖顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>丹佛大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%B0%94%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>博尔德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%96%AF%E6%99%AE%E6%9E%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>科罗拉多斯普林斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%E6%96%AF%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>科林斯堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E5%B0%94</t>
+  </si>
+  <si>
+    <t>韦尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>科罗拉多大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%A6%E4%B8%B9%E4%BD%9B%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>科罗拉多大学丹佛分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>科罗拉多州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E7%A4%A6%E6%A5%AD%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>科罗拉多矿业学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>北科罗拉多大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>亚当斯州立学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>联合航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%96%86%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>边疆航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/70%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>70号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/25%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>25号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国职业足球大联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%80%A5%E6%B5%81</t>
+  </si>
+  <si>
+    <t>科罗拉多急流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NFL</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%8E%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>丹佛野马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NCAA</t>
+  </si>
+  <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国职棒大联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
+  </si>
+  <si>
+    <t>科罗拉多洛矶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>小联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NBA</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%91%E5%A1%8A</t>
+  </si>
+  <si>
+    <t>丹佛金块</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NHL</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E9%9B%AA%E5%B4%A9</t>
+  </si>
+  <si>
+    <t>科罗拉多雪崩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%BB%B6%E5%B1%B1%E6%A0%B8%E6%88%B0%E7%A2%89%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>夏延山核战碉堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E5%BA%B7%E5%A5%88%E5%B0%94</t>
+  </si>
+  <si>
+    <t>埃里克·康奈尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E7%89%B9%E6%96%AF%E6%8B%89</t>
+  </si>
+  <si>
+    <t>尼古拉·特斯拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%8B%89%E5%BE%97%C2%B7%E5%88%A9%E6%AF%94</t>
+  </si>
+  <si>
+    <t>威拉得·利比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E6%9C%8B%E5%85%8B</t>
+  </si>
+  <si>
+    <t>范朋克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%B8%B9%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>约翰·丹佛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E4%BC%BD%E8%8E%AB%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>乔治·伽莫夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E5%85%8B%E5%8B%92%E9%BB%98</t>
+  </si>
+  <si>
+    <t>赫伯特·克勒默</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>南方公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>Template talk-美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_科罗拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>科羅拉多州州旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>丹佛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E4%BC%AF%E7%89%B9%E5%B3%B0</t>
-  </si>
-  <si>
-    <t>阿爾伯特峰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Colorado</t>
-  </si>
-  <si>
-    <t>en-List of Governors of Colorado</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B8%8C%E8%82%AF%E7%9B%A7%E7%8F%80</t>
-  </si>
-  <si>
-    <t>約翰·希肯盧珀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>民主黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Colorado</t>
-  </si>
-  <si>
-    <t>en-List of lieutenant governors of Colorado</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Joseph_Garcia_(U.S._politician)</t>
-  </si>
-  <si>
-    <t>en-Joseph Garcia (U.S. politician)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Colorado</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from Colorado</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美山区时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
-  </si>
-  <si>
-    <t>日光節約時間</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美國州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科羅拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E8%B3%BC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>路易斯安那購地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%BB</t>
-  </si>
-  <si>
-    <t>大麻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>懷俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>猶他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E5%AE%89</t>
-  </si>
-  <si>
-    <t>印地安</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>阿拉斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
-  </si>
-  <si>
-    <t>夏威夷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>科罗拉多州行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B%E5%86%9B%E5%AE%98%E5%AD%A6%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>美国空军军官学校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B2%99%E4%B8%98%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>大沙丘国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E7%BD%97%E6%8B%89_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奥罗拉 (科罗拉多州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%B5%96%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>布赖顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>丹佛大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%B0%94%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>博尔德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%96%AF%E6%99%AE%E6%9E%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>科罗拉多斯普林斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%E6%96%AF%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>科林斯堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E5%B0%94</t>
-  </si>
-  <si>
-    <t>韦尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>科羅拉多大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%A6%E4%B8%B9%E4%BD%9B%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>科罗拉多大学丹佛分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>科羅拉多州立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E7%A4%A6%E6%A5%AD%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>科羅拉多礦業學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>北科羅拉多大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF%E5%B7%9E%E7%AB%8B%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>亞當斯州立學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>聯合航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%96%86%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>邊疆航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/70%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>70號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/25%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>25號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國職業足球大聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%80%A5%E6%B5%81</t>
-  </si>
-  <si>
-    <t>科羅拉多急流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NFL</t>
-  </si>
-  <si>
-    <t>NFL</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%8E%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>丹佛野馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NCAA</t>
-  </si>
-  <si>
-    <t>NCAA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國職棒大聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
-  </si>
-  <si>
-    <t>科羅拉多洛磯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>小聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NBA</t>
-  </si>
-  <si>
-    <t>NBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%91%E5%A1%8A</t>
-  </si>
-  <si>
-    <t>丹佛金塊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NHL</t>
-  </si>
-  <si>
-    <t>NHL</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E9%9B%AA%E5%B4%A9</t>
-  </si>
-  <si>
-    <t>科羅拉多雪崩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%BB%B6%E5%B1%B1%E6%A0%B8%E6%88%B0%E7%A2%89%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>夏延山核戰碉堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E5%BA%B7%E5%A5%88%E5%B0%94</t>
-  </si>
-  <si>
-    <t>埃里克·康奈尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E7%89%B9%E6%96%AF%E6%8B%89</t>
-  </si>
-  <si>
-    <t>尼古拉·特斯拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%8B%89%E5%BE%97%C2%B7%E5%88%A9%E6%AF%94</t>
-  </si>
-  <si>
-    <t>威拉得·利比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E6%9C%8B%E5%85%8B</t>
-  </si>
-  <si>
-    <t>范朋克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%B8%B9%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>約翰·丹佛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E4%BC%BD%E8%8E%AB%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>乔治·伽莫夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E5%85%8B%E5%8B%92%E9%BB%98</t>
-  </si>
-  <si>
-    <t>赫伯特·克勒默</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>南方公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>Template talk-美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%E6%96%AF%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
@@ -965,25 +962,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%89%B9%E7%B8%A3</t>
   </si>
   <si>
-    <t>本特縣</t>
+    <t>本特县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%93%E7%9F%B3%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>圓石縣 (科羅拉多州)</t>
+    <t>圆石县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E8%8F%B2_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布隆菲 (科羅拉多州)</t>
+    <t>布隆菲 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E8%8F%B2%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>查菲縣 (科羅拉多州)</t>
+    <t>查菲县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%BB%B6%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%88%A9%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克羅利縣 (科羅拉多州)</t>
+    <t>克罗利县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%89%B9%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%88%BE%E5%A1%94%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>德爾塔縣 (科羅拉多州)</t>
+    <t>德尔塔县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%B4%9B%E9%9B%B7%E6%96%AF%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1043,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%A0%BC%E7%88%BE%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伊格爾縣 (科羅拉多州)</t>
+    <t>伊格尔县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E5%B8%95%E7%B4%A2%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1061,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E8%92%99%E7%89%B9%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>弗里蒙特縣 (科羅拉多州)</t>
+    <t>弗里蒙特县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1073,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%B9%B3%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>吉爾平縣 (科羅拉多州)</t>
+    <t>吉尔平县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%85%B0%E5%BE%B7%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1085,13 +1082,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E5%B0%BC%E6%A3%AE%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>甘尼森縣 (科羅拉多州)</t>
+    <t>甘尼森县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A3%E6%96%AF%E4%BB%A3%E7%88%BE%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>欣斯代爾縣 (科羅拉多州)</t>
+    <t>欣斯代尔县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E5%B0%94%E6%B3%95%E8%AF%BA%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1121,7 +1118,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%89%B9%E5%8D%A1%E6%A3%AE%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>基特卡森縣 (科羅拉多州)</t>
+    <t>基特卡森县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8B%89%E5%A1%94%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1145,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E9%98%BF%E5%B0%BC%E9%A6%AC%E6%96%AF%E7%B8%A3</t>
   </si>
   <si>
-    <t>拉斯阿尼馬斯縣</t>
+    <t>拉斯阿尼马斯县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1199,19 +1196,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E7%89%B9%E7%BE%85%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧特羅縣 (科羅拉多州)</t>
+    <t>奥特罗县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E9%9B%B7%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>烏雷縣 (科羅拉多州)</t>
+    <t>乌雷县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%85%8B%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕克縣 (科羅拉多州)</t>
+    <t>帕克县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%E6%96%AF%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1289,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%8B%92%E7%B8%A3_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>特勒縣 (科羅拉多州)</t>
+    <t>特勒县 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%8E%BF_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B7_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波德 (科羅拉多州)</t>
+    <t>波德 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%A0%A1%E7%9F%B3_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1397,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E9%A0%93_(%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>桑頓 (科羅拉多州)</t>
+    <t>桑顿 (科罗拉多州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E6%95%8F%E6%96%AF%E7%89%B9_(%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E5%B7%9E)</t>
@@ -1409,25 +1406,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>内布拉斯加州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%90%A8%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪萨斯州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亚利桑那州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1445,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1463,16 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I254"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2281,7 +2260,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -2629,7 +2608,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -5584,7 +5563,7 @@
         <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5610,10 +5589,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5639,10 +5618,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5668,10 +5647,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5697,10 +5676,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5726,10 +5705,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5755,10 +5734,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5784,10 +5763,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5813,10 +5792,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5842,10 +5821,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5871,10 +5850,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5900,10 +5879,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5929,10 +5908,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5958,10 +5937,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5987,10 +5966,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6016,10 +5995,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6045,10 +6024,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6074,10 +6053,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6103,10 +6082,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6132,10 +6111,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6161,10 +6140,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6190,10 +6169,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6219,10 +6198,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6248,10 +6227,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6277,10 +6256,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6306,10 +6285,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6335,10 +6314,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6364,10 +6343,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6393,13 +6372,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6422,10 +6401,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6451,10 +6430,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6480,10 +6459,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6509,10 +6488,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6538,10 +6517,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6567,10 +6546,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6596,10 +6575,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6625,10 +6604,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6654,10 +6633,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6683,10 +6662,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6712,10 +6691,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6741,10 +6720,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6770,10 +6749,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6799,10 +6778,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6828,10 +6807,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6857,10 +6836,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6886,10 +6865,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>14</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6915,10 +6894,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6944,10 +6923,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6973,10 +6952,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7002,10 +6981,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7031,10 +7010,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7060,10 +7039,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7089,10 +7068,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7118,13 +7097,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7147,13 +7126,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7176,10 +7155,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7205,10 +7184,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7234,10 +7213,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7263,10 +7242,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7292,10 +7271,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7321,10 +7300,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7350,10 +7329,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7379,10 +7358,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7408,10 +7387,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7437,10 +7416,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7466,10 +7445,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7495,10 +7474,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7524,10 +7503,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7553,10 +7532,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7582,10 +7561,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7611,10 +7590,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7640,10 +7619,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7669,10 +7648,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7698,10 +7677,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7727,10 +7706,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7756,10 +7735,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7785,10 +7764,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7814,10 +7793,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7843,10 +7822,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7872,10 +7851,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7901,10 +7880,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7930,10 +7909,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7959,10 +7938,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7988,10 +7967,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8017,10 +7996,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8046,10 +8025,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8075,10 +8054,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8104,10 +8083,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8133,10 +8112,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8162,10 +8141,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8191,10 +8170,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8220,10 +8199,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8249,10 +8228,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8278,10 +8257,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>95</v>
+        <v>430</v>
       </c>
       <c r="F223" t="s">
-        <v>96</v>
+        <v>431</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8307,10 +8286,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>95</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>96</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8336,13 +8315,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>319</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>320</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -8365,13 +8344,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>318</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>319</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -8394,10 +8373,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8423,10 +8402,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8452,10 +8431,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8481,13 +8460,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -8510,13 +8489,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -8539,10 +8518,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8568,10 +8547,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8597,10 +8576,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8626,10 +8605,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8655,13 +8634,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -8684,10 +8663,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -8713,13 +8692,13 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -8742,10 +8721,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8771,13 +8750,13 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>261</v>
+        <v>460</v>
       </c>
       <c r="F240" t="s">
-        <v>262</v>
+        <v>461</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -8800,13 +8779,13 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>260</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>68</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -8829,10 +8808,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>249</v>
+        <v>462</v>
       </c>
       <c r="F242" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8858,10 +8837,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>249</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>76</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8887,10 +8866,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>72</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8916,10 +8895,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="F245" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8945,13 +8924,13 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>233</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>234</v>
       </c>
       <c r="G246" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -8974,13 +8953,13 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -9003,10 +8982,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9032,10 +9011,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9061,10 +9040,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9090,10 +9069,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9119,10 +9098,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9148,47 +9127,18 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G253" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
       </c>
       <c r="I253" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>0</v>
-      </c>
-      <c r="C254" t="s">
-        <v>1</v>
-      </c>
-      <c r="D254" t="n">
-        <v>253</v>
-      </c>
-      <c r="E254" t="s">
-        <v>483</v>
-      </c>
-      <c r="F254" t="s">
-        <v>485</v>
-      </c>
-      <c r="G254" t="n">
-        <v>1</v>
-      </c>
-      <c r="H254" t="s">
-        <v>4</v>
-      </c>
-      <c r="I254" t="n">
         <v>3</v>
       </c>
     </row>
